--- a/datasheets/compare/compare_algs_S-2.xlsx
+++ b/datasheets/compare/compare_algs_S-2.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1589298</v>
+        <v>1657108</v>
       </c>
       <c r="B2" t="n">
-        <v>3185649</v>
+        <v>3318606</v>
       </c>
       <c r="C2" t="n">
-        <v>362</v>
+        <v>3318642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1315084</v>
+        <v>1040602</v>
       </c>
       <c r="B3" t="n">
-        <v>2635320</v>
+        <v>2089401</v>
       </c>
       <c r="C3" t="n">
-        <v>306</v>
+        <v>2089449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1032704</v>
+        <v>1358097</v>
       </c>
       <c r="B4" t="n">
-        <v>2073042</v>
+        <v>2721314</v>
       </c>
       <c r="C4" t="n">
-        <v>452</v>
+        <v>2721338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1454875</v>
+        <v>-1556733</v>
       </c>
       <c r="B5" t="n">
-        <v>2916868</v>
+        <v>3119661</v>
       </c>
       <c r="C5" t="n">
-        <v>361</v>
+        <v>3119683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1850003</v>
+        <v>1284872</v>
       </c>
       <c r="B6" t="n">
-        <v>3706507</v>
+        <v>2577702</v>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>2577736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1185318</v>
+        <v>1456288</v>
       </c>
       <c r="B7" t="n">
-        <v>2376809</v>
+        <v>2919966</v>
       </c>
       <c r="C7" t="n">
-        <v>310</v>
+        <v>2919990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1918233</v>
+        <v>-1198991</v>
       </c>
       <c r="B8" t="n">
-        <v>3842569</v>
+        <v>2405375</v>
       </c>
       <c r="C8" t="n">
-        <v>231</v>
+        <v>2405401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>980508</v>
+        <v>1325232</v>
       </c>
       <c r="B9" t="n">
-        <v>1965904</v>
+        <v>2657787</v>
       </c>
       <c r="C9" t="n">
-        <v>351</v>
+        <v>2657809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1449656</v>
+        <v>1312131</v>
       </c>
       <c r="B10" t="n">
-        <v>2905953</v>
+        <v>2629596</v>
       </c>
       <c r="C10" t="n">
-        <v>417</v>
+        <v>2629644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1558991</v>
+        <v>2003209</v>
       </c>
       <c r="B11" t="n">
-        <v>3124499</v>
+        <v>4011958</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>4011976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1160055</v>
+        <v>1492646</v>
       </c>
       <c r="B12" t="n">
-        <v>2324590</v>
+        <v>2991161</v>
       </c>
       <c r="C12" t="n">
-        <v>404</v>
+        <v>2991201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1678781</v>
+        <v>-1595884</v>
       </c>
       <c r="B13" t="n">
-        <v>3364276</v>
+        <v>3197033</v>
       </c>
       <c r="C13" t="n">
-        <v>318</v>
+        <v>3197063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1534271</v>
+        <v>-1406509</v>
       </c>
       <c r="B14" t="n">
-        <v>3075123</v>
+        <v>2817735</v>
       </c>
       <c r="C14" t="n">
-        <v>432</v>
+        <v>2817757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>991556</v>
+        <v>1294027</v>
       </c>
       <c r="B15" t="n">
-        <v>1988256</v>
+        <v>2595310</v>
       </c>
       <c r="C15" t="n">
-        <v>437</v>
+        <v>2595342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1292466</v>
+        <v>1336113</v>
       </c>
       <c r="B16" t="n">
-        <v>2593025</v>
+        <v>2677828</v>
       </c>
       <c r="C16" t="n">
-        <v>394</v>
+        <v>2677862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1379530</v>
+        <v>1635278</v>
       </c>
       <c r="B17" t="n">
-        <v>2767231</v>
+        <v>3278370</v>
       </c>
       <c r="C17" t="n">
-        <v>314</v>
+        <v>3278388</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1577435</v>
+        <v>990539</v>
       </c>
       <c r="B18" t="n">
-        <v>3160759</v>
+        <v>1987846</v>
       </c>
       <c r="C18" t="n">
-        <v>256</v>
+        <v>1987872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1785561</v>
+        <v>-1298951</v>
       </c>
       <c r="B19" t="n">
-        <v>3575933</v>
+        <v>2605339</v>
       </c>
       <c r="C19" t="n">
-        <v>247</v>
+        <v>2605349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1202030</v>
+        <v>1437066</v>
       </c>
       <c r="B20" t="n">
-        <v>2408687</v>
+        <v>2880352</v>
       </c>
       <c r="C20" t="n">
-        <v>202</v>
+        <v>2880376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1556253</v>
+        <v>1933480</v>
       </c>
       <c r="B21" t="n">
-        <v>3120031</v>
+        <v>3874050</v>
       </c>
       <c r="C21" t="n">
-        <v>475</v>
+        <v>3874080</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1749417</v>
+        <v>1718162</v>
       </c>
       <c r="B22" t="n">
-        <v>3503221</v>
+        <v>3441599</v>
       </c>
       <c r="C22" t="n">
-        <v>238</v>
+        <v>3441633</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1661017</v>
+        <v>1711135</v>
       </c>
       <c r="B23" t="n">
-        <v>3329727</v>
+        <v>3430524</v>
       </c>
       <c r="C23" t="n">
-        <v>233</v>
+        <v>3430548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1357782</v>
+        <v>1702383</v>
       </c>
       <c r="B24" t="n">
-        <v>2719868</v>
+        <v>3411686</v>
       </c>
       <c r="C24" t="n">
-        <v>401</v>
+        <v>3411710</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1666687</v>
+        <v>1105232</v>
       </c>
       <c r="B25" t="n">
-        <v>3339863</v>
+        <v>2215387</v>
       </c>
       <c r="C25" t="n">
-        <v>316</v>
+        <v>2215409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1660231</v>
+        <v>-1248877</v>
       </c>
       <c r="B26" t="n">
-        <v>3325436</v>
+        <v>2502103</v>
       </c>
       <c r="C26" t="n">
-        <v>369</v>
+        <v>2502123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>951195</v>
+        <v>1552906</v>
       </c>
       <c r="B27" t="n">
-        <v>1908333</v>
+        <v>3113773</v>
       </c>
       <c r="C27" t="n">
-        <v>368</v>
+        <v>3113791</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1946403</v>
+        <v>1032653</v>
       </c>
       <c r="B28" t="n">
-        <v>3900598</v>
+        <v>2072194</v>
       </c>
       <c r="C28" t="n">
-        <v>449</v>
+        <v>2072224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1441002</v>
+        <v>1936399</v>
       </c>
       <c r="B29" t="n">
-        <v>2889124</v>
+        <v>3877417</v>
       </c>
       <c r="C29" t="n">
-        <v>320</v>
+        <v>3877459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1050460</v>
+        <v>1348145</v>
       </c>
       <c r="B30" t="n">
-        <v>2108789</v>
+        <v>2701131</v>
       </c>
       <c r="C30" t="n">
-        <v>428</v>
+        <v>2701163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1790239</v>
+        <v>-1200672</v>
       </c>
       <c r="B31" t="n">
-        <v>3586450</v>
+        <v>2406523</v>
       </c>
       <c r="C31" t="n">
-        <v>254</v>
+        <v>2406555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1138901</v>
+        <v>1612594</v>
       </c>
       <c r="B32" t="n">
-        <v>2284136</v>
+        <v>3232830</v>
       </c>
       <c r="C32" t="n">
-        <v>421</v>
+        <v>3232850</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>955507</v>
+        <v>1438528</v>
       </c>
       <c r="B33" t="n">
-        <v>1918194</v>
+        <v>2883106</v>
       </c>
       <c r="C33" t="n">
-        <v>416</v>
+        <v>2883136</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1866074</v>
+        <v>1739127</v>
       </c>
       <c r="B34" t="n">
-        <v>3739029</v>
+        <v>3485646</v>
       </c>
       <c r="C34" t="n">
-        <v>464</v>
+        <v>3485678</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1208961</v>
+        <v>1567344</v>
       </c>
       <c r="B35" t="n">
-        <v>2424173</v>
+        <v>3141747</v>
       </c>
       <c r="C35" t="n">
-        <v>266</v>
+        <v>3141769</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>985307</v>
+        <v>1506199</v>
       </c>
       <c r="B36" t="n">
-        <v>1977506</v>
+        <v>3017558</v>
       </c>
       <c r="C36" t="n">
-        <v>298</v>
+        <v>3017576</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1573515</v>
+        <v>-1237364</v>
       </c>
       <c r="B37" t="n">
-        <v>3151978</v>
+        <v>2481917</v>
       </c>
       <c r="C37" t="n">
-        <v>247</v>
+        <v>2481957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1710774</v>
+        <v>1922160</v>
       </c>
       <c r="B38" t="n">
-        <v>3428938</v>
+        <v>3850559</v>
       </c>
       <c r="C38" t="n">
-        <v>344</v>
+        <v>3850565</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>955994</v>
+        <v>1147502</v>
       </c>
       <c r="B39" t="n">
-        <v>1916438</v>
+        <v>2302827</v>
       </c>
       <c r="C39" t="n">
-        <v>255</v>
+        <v>2302853</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1682098</v>
+        <v>1099034</v>
       </c>
       <c r="B40" t="n">
-        <v>3369916</v>
+        <v>2205300</v>
       </c>
       <c r="C40" t="n">
-        <v>452</v>
+        <v>2205324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1257475</v>
+        <v>1143289</v>
       </c>
       <c r="B41" t="n">
-        <v>2521527</v>
+        <v>2293046</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>2293060</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1583102</v>
+        <v>1564590</v>
       </c>
       <c r="B42" t="n">
-        <v>3171626</v>
+        <v>3136761</v>
       </c>
       <c r="C42" t="n">
-        <v>214</v>
+        <v>3136763</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1595830</v>
+        <v>1520299</v>
       </c>
       <c r="B43" t="n">
-        <v>3196950</v>
+        <v>3047761</v>
       </c>
       <c r="C43" t="n">
-        <v>224</v>
+        <v>3047765</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2006518</v>
+        <v>1946767</v>
       </c>
       <c r="B44" t="n">
-        <v>4020822</v>
+        <v>3898454</v>
       </c>
       <c r="C44" t="n">
-        <v>245</v>
+        <v>3898488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1644804</v>
+        <v>1520976</v>
       </c>
       <c r="B45" t="n">
-        <v>3297667</v>
+        <v>3050308</v>
       </c>
       <c r="C45" t="n">
-        <v>216</v>
+        <v>3050338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1641458</v>
+        <v>1495499</v>
       </c>
       <c r="B46" t="n">
-        <v>3288235</v>
+        <v>2999179</v>
       </c>
       <c r="C46" t="n">
-        <v>291</v>
+        <v>2999193</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1445209</v>
+        <v>1819881</v>
       </c>
       <c r="B47" t="n">
-        <v>2897620</v>
+        <v>3645006</v>
       </c>
       <c r="C47" t="n">
-        <v>408</v>
+        <v>3645040</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1147789</v>
+        <v>1544077</v>
       </c>
       <c r="B48" t="n">
-        <v>2300330</v>
+        <v>3095620</v>
       </c>
       <c r="C48" t="n">
-        <v>285</v>
+        <v>3095654</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1955124</v>
+        <v>1784815</v>
       </c>
       <c r="B49" t="n">
-        <v>3918234</v>
+        <v>3577092</v>
       </c>
       <c r="C49" t="n">
-        <v>411</v>
+        <v>3577118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1449272</v>
+        <v>1894490</v>
       </c>
       <c r="B50" t="n">
-        <v>2903778</v>
+        <v>3794624</v>
       </c>
       <c r="C50" t="n">
-        <v>325</v>
+        <v>3794640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1139210</v>
+        <v>-1778514</v>
       </c>
       <c r="B51" t="n">
-        <v>2285791</v>
+        <v>3565211</v>
       </c>
       <c r="C51" t="n">
-        <v>350</v>
+        <v>3565239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1754121</v>
+        <v>1179382</v>
       </c>
       <c r="B52" t="n">
-        <v>3514424</v>
+        <v>2366276</v>
       </c>
       <c r="C52" t="n">
-        <v>349</v>
+        <v>2366296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1254305</v>
+        <v>1361099</v>
       </c>
       <c r="B53" t="n">
-        <v>2514547</v>
+        <v>2730316</v>
       </c>
       <c r="C53" t="n">
-        <v>355</v>
+        <v>2730338</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1568704</v>
+        <v>1848109</v>
       </c>
       <c r="B54" t="n">
-        <v>3141919</v>
+        <v>3701078</v>
       </c>
       <c r="C54" t="n">
-        <v>206</v>
+        <v>3701106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1838745</v>
+        <v>1685505</v>
       </c>
       <c r="B55" t="n">
-        <v>3681994</v>
+        <v>3375470</v>
       </c>
       <c r="C55" t="n">
-        <v>287</v>
+        <v>3375486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1573888</v>
+        <v>1720365</v>
       </c>
       <c r="B56" t="n">
-        <v>3155477</v>
+        <v>3448448</v>
       </c>
       <c r="C56" t="n">
-        <v>225</v>
+        <v>3448484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1145835</v>
+        <v>1803129</v>
       </c>
       <c r="B57" t="n">
-        <v>2298870</v>
+        <v>3612310</v>
       </c>
       <c r="C57" t="n">
-        <v>335</v>
+        <v>3612328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1471809</v>
+        <v>1381560</v>
       </c>
       <c r="B58" t="n">
-        <v>2950226</v>
+        <v>2770944</v>
       </c>
       <c r="C58" t="n">
-        <v>261</v>
+        <v>2770964</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1386188</v>
+        <v>-1558673</v>
       </c>
       <c r="B59" t="n">
-        <v>2777788</v>
+        <v>3121985</v>
       </c>
       <c r="C59" t="n">
-        <v>221</v>
+        <v>3121993</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1314673</v>
+        <v>1792235</v>
       </c>
       <c r="B60" t="n">
-        <v>2636493</v>
+        <v>3589648</v>
       </c>
       <c r="C60" t="n">
-        <v>380</v>
+        <v>3589678</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1536562</v>
+        <v>1169646</v>
       </c>
       <c r="B61" t="n">
-        <v>3079374</v>
+        <v>2345070</v>
       </c>
       <c r="C61" t="n">
-        <v>433</v>
+        <v>2345096</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1212101</v>
+        <v>951983</v>
       </c>
       <c r="B62" t="n">
-        <v>2428643</v>
+        <v>1908890</v>
       </c>
       <c r="C62" t="n">
-        <v>369</v>
+        <v>1908930</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1864678</v>
+        <v>1230072</v>
       </c>
       <c r="B63" t="n">
-        <v>3733892</v>
+        <v>2467478</v>
       </c>
       <c r="C63" t="n">
-        <v>331</v>
+        <v>2467492</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1775223</v>
+        <v>-1865995</v>
       </c>
       <c r="B64" t="n">
-        <v>3557803</v>
+        <v>3740071</v>
       </c>
       <c r="C64" t="n">
-        <v>384</v>
+        <v>3740083</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1103604</v>
+        <v>1275658</v>
       </c>
       <c r="B65" t="n">
-        <v>2214028</v>
+        <v>2556754</v>
       </c>
       <c r="C65" t="n">
-        <v>404</v>
+        <v>2556762</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1124895</v>
+        <v>1207244</v>
       </c>
       <c r="B66" t="n">
-        <v>2256318</v>
+        <v>2422476</v>
       </c>
       <c r="C66" t="n">
-        <v>242</v>
+        <v>2422506</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1717752</v>
+        <v>1450726</v>
       </c>
       <c r="B67" t="n">
-        <v>3440871</v>
+        <v>2907843</v>
       </c>
       <c r="C67" t="n">
-        <v>309</v>
+        <v>2907877</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1347946</v>
+        <v>-1843973</v>
       </c>
       <c r="B68" t="n">
-        <v>2701569</v>
+        <v>3692247</v>
       </c>
       <c r="C68" t="n">
-        <v>344</v>
+        <v>3692285</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1363860</v>
+        <v>1260506</v>
       </c>
       <c r="B69" t="n">
-        <v>2735022</v>
+        <v>2528884</v>
       </c>
       <c r="C69" t="n">
-        <v>358</v>
+        <v>2528912</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1341653</v>
+        <v>1098817</v>
       </c>
       <c r="B70" t="n">
-        <v>2689066</v>
+        <v>2204564</v>
       </c>
       <c r="C70" t="n">
-        <v>310</v>
+        <v>2204596</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1906338</v>
+        <v>1326859</v>
       </c>
       <c r="B71" t="n">
-        <v>3817274</v>
+        <v>2661495</v>
       </c>
       <c r="C71" t="n">
-        <v>441</v>
+        <v>2661535</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1930664</v>
+        <v>1602830</v>
       </c>
       <c r="B72" t="n">
-        <v>3868926</v>
+        <v>3211006</v>
       </c>
       <c r="C72" t="n">
-        <v>372</v>
+        <v>3211042</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1608609</v>
+        <v>1990186</v>
       </c>
       <c r="B73" t="n">
-        <v>3224428</v>
+        <v>3987434</v>
       </c>
       <c r="C73" t="n">
-        <v>244</v>
+        <v>3987448</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1309418</v>
+        <v>1374177</v>
       </c>
       <c r="B74" t="n">
-        <v>2626093</v>
+        <v>2753862</v>
       </c>
       <c r="C74" t="n">
-        <v>346</v>
+        <v>2753888</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1219920</v>
+        <v>1698697</v>
       </c>
       <c r="B75" t="n">
-        <v>2447913</v>
+        <v>3404880</v>
       </c>
       <c r="C75" t="n">
-        <v>341</v>
+        <v>3404900</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1928367</v>
+        <v>1689666</v>
       </c>
       <c r="B76" t="n">
-        <v>3861610</v>
+        <v>3383721</v>
       </c>
       <c r="C76" t="n">
-        <v>261</v>
+        <v>3383751</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1055746</v>
+        <v>-1478664</v>
       </c>
       <c r="B77" t="n">
-        <v>2118928</v>
+        <v>2963821</v>
       </c>
       <c r="C77" t="n">
-        <v>320</v>
+        <v>2963855</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1661271</v>
+        <v>1041107</v>
       </c>
       <c r="B78" t="n">
-        <v>3328542</v>
+        <v>2088464</v>
       </c>
       <c r="C78" t="n">
-        <v>385</v>
+        <v>2088496</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1716719</v>
+        <v>967405</v>
       </c>
       <c r="B79" t="n">
-        <v>3440334</v>
+        <v>1939545</v>
       </c>
       <c r="C79" t="n">
-        <v>331</v>
+        <v>1939583</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1633838</v>
+        <v>-1885448</v>
       </c>
       <c r="B80" t="n">
-        <v>3272280</v>
+        <v>3777339</v>
       </c>
       <c r="C80" t="n">
-        <v>302</v>
+        <v>3777347</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1397538</v>
+        <v>1655145</v>
       </c>
       <c r="B81" t="n">
-        <v>2802858</v>
+        <v>3317079</v>
       </c>
       <c r="C81" t="n">
-        <v>328</v>
+        <v>3317099</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1642281</v>
+        <v>-1901402</v>
       </c>
       <c r="B82" t="n">
-        <v>3290602</v>
+        <v>3808353</v>
       </c>
       <c r="C82" t="n">
-        <v>306</v>
+        <v>3808369</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1400904</v>
+        <v>1599113</v>
       </c>
       <c r="B83" t="n">
-        <v>2808526</v>
+        <v>3202808</v>
       </c>
       <c r="C83" t="n">
-        <v>228</v>
+        <v>3202822</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1513688</v>
+        <v>-1709248</v>
       </c>
       <c r="B84" t="n">
-        <v>3035481</v>
+        <v>3423353</v>
       </c>
       <c r="C84" t="n">
-        <v>382</v>
+        <v>3423363</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1377956</v>
+        <v>-1865120</v>
       </c>
       <c r="B85" t="n">
-        <v>2762846</v>
+        <v>3734735</v>
       </c>
       <c r="C85" t="n">
-        <v>288</v>
+        <v>3734753</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1099781</v>
+        <v>1732671</v>
       </c>
       <c r="B86" t="n">
-        <v>2206429</v>
+        <v>3470800</v>
       </c>
       <c r="C86" t="n">
-        <v>374</v>
+        <v>3470812</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1347958</v>
+        <v>1753108</v>
       </c>
       <c r="B87" t="n">
-        <v>2700877</v>
+        <v>3511912</v>
       </c>
       <c r="C87" t="n">
-        <v>414</v>
+        <v>3511962</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1099758</v>
+        <v>1454696</v>
       </c>
       <c r="B88" t="n">
-        <v>2206069</v>
+        <v>2917502</v>
       </c>
       <c r="C88" t="n">
-        <v>305</v>
+        <v>2917510</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1975980</v>
+        <v>1232169</v>
       </c>
       <c r="B89" t="n">
-        <v>3960044</v>
+        <v>2470767</v>
       </c>
       <c r="C89" t="n">
-        <v>333</v>
+        <v>2470811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1159535</v>
+        <v>1197967</v>
       </c>
       <c r="B90" t="n">
-        <v>2326033</v>
+        <v>2404116</v>
       </c>
       <c r="C90" t="n">
-        <v>423</v>
+        <v>2404140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1804683</v>
+        <v>959619</v>
       </c>
       <c r="B91" t="n">
-        <v>3616910</v>
+        <v>1924138</v>
       </c>
       <c r="C91" t="n">
-        <v>352</v>
+        <v>1924166</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1792590</v>
+        <v>-1334735</v>
       </c>
       <c r="B92" t="n">
-        <v>3593346</v>
+        <v>2674959</v>
       </c>
       <c r="C92" t="n">
-        <v>276</v>
+        <v>2674973</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1695856</v>
+        <v>1430477</v>
       </c>
       <c r="B93" t="n">
-        <v>3398603</v>
+        <v>2868225</v>
       </c>
       <c r="C93" t="n">
-        <v>429</v>
+        <v>2868245</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1883647</v>
+        <v>1713547</v>
       </c>
       <c r="B94" t="n">
-        <v>3775059</v>
+        <v>3433457</v>
       </c>
       <c r="C94" t="n">
-        <v>301</v>
+        <v>3433485</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1855446</v>
+        <v>1028415</v>
       </c>
       <c r="B95" t="n">
-        <v>3715475</v>
+        <v>2064130</v>
       </c>
       <c r="C95" t="n">
-        <v>442</v>
+        <v>2064134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1511517</v>
+        <v>1691808</v>
       </c>
       <c r="B96" t="n">
-        <v>3028952</v>
+        <v>3388432</v>
       </c>
       <c r="C96" t="n">
-        <v>224</v>
+        <v>3388476</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-1001999</v>
+        <v>-2013122</v>
       </c>
       <c r="B97" t="n">
-        <v>2011963</v>
+        <v>4032145</v>
       </c>
       <c r="C97" t="n">
-        <v>342</v>
+        <v>4032171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1062583</v>
+        <v>1890499</v>
       </c>
       <c r="B98" t="n">
-        <v>2129563</v>
+        <v>3788942</v>
       </c>
       <c r="C98" t="n">
-        <v>295</v>
+        <v>3788960</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1156789</v>
+        <v>1930360</v>
       </c>
       <c r="B99" t="n">
-        <v>2320053</v>
+        <v>3865091</v>
       </c>
       <c r="C99" t="n">
-        <v>389</v>
+        <v>3865121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1928599</v>
+        <v>1873864</v>
       </c>
       <c r="B100" t="n">
-        <v>3864203</v>
+        <v>3753230</v>
       </c>
       <c r="C100" t="n">
-        <v>429</v>
+        <v>3753236</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1603906</v>
+        <v>-1751889</v>
       </c>
       <c r="B101" t="n">
-        <v>3214152</v>
+        <v>3508719</v>
       </c>
       <c r="C101" t="n">
-        <v>416</v>
+        <v>3508745</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-2.xlsx
+++ b/datasheets/compare/compare_algs_S-2.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1657108</v>
+        <v>2391021</v>
       </c>
       <c r="B2" t="n">
-        <v>3318606</v>
+        <v>2395476</v>
       </c>
       <c r="C2" t="n">
-        <v>3318642</v>
+        <v>2395488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1040602</v>
+        <v>2826061</v>
       </c>
       <c r="B3" t="n">
-        <v>2089401</v>
+        <v>2830309</v>
       </c>
       <c r="C3" t="n">
-        <v>2089449</v>
+        <v>2830329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1358097</v>
+        <v>3324587</v>
       </c>
       <c r="B4" t="n">
-        <v>2721314</v>
+        <v>3330662</v>
       </c>
       <c r="C4" t="n">
-        <v>2721338</v>
+        <v>3330678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1556733</v>
+        <v>2695965</v>
       </c>
       <c r="B5" t="n">
-        <v>3119661</v>
+        <v>2703615</v>
       </c>
       <c r="C5" t="n">
-        <v>3119683</v>
+        <v>2703643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1284872</v>
+        <v>2542232</v>
       </c>
       <c r="B6" t="n">
-        <v>2577702</v>
+        <v>2549766</v>
       </c>
       <c r="C6" t="n">
-        <v>2577736</v>
+        <v>2549796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1456288</v>
+        <v>2081184</v>
       </c>
       <c r="B7" t="n">
-        <v>2919966</v>
+        <v>2085662</v>
       </c>
       <c r="C7" t="n">
-        <v>2919990</v>
+        <v>2085690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1198991</v>
+        <v>3013666</v>
       </c>
       <c r="B8" t="n">
-        <v>2405375</v>
+        <v>3020867</v>
       </c>
       <c r="C8" t="n">
-        <v>2405401</v>
+        <v>3020909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1325232</v>
+        <v>2677204</v>
       </c>
       <c r="B9" t="n">
-        <v>2657787</v>
+        <v>2684562</v>
       </c>
       <c r="C9" t="n">
-        <v>2657809</v>
+        <v>2684614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1312131</v>
+        <v>3795185</v>
       </c>
       <c r="B10" t="n">
-        <v>2629596</v>
+        <v>3800415</v>
       </c>
       <c r="C10" t="n">
-        <v>2629644</v>
+        <v>3800431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2003209</v>
+        <v>3450346</v>
       </c>
       <c r="B11" t="n">
-        <v>4011958</v>
+        <v>3454785</v>
       </c>
       <c r="C11" t="n">
-        <v>4011976</v>
+        <v>3454819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1492646</v>
+        <v>2940085</v>
       </c>
       <c r="B12" t="n">
-        <v>2991161</v>
+        <v>2947672</v>
       </c>
       <c r="C12" t="n">
-        <v>2991201</v>
+        <v>2947676</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1595884</v>
+        <v>2018995</v>
       </c>
       <c r="B13" t="n">
-        <v>3197033</v>
+        <v>2026312</v>
       </c>
       <c r="C13" t="n">
-        <v>3197063</v>
+        <v>2026336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1406509</v>
+        <v>2049689</v>
       </c>
       <c r="B14" t="n">
-        <v>2817735</v>
+        <v>2056602</v>
       </c>
       <c r="C14" t="n">
-        <v>2817757</v>
+        <v>2056630</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1294027</v>
+        <v>3533638</v>
       </c>
       <c r="B15" t="n">
-        <v>2595310</v>
+        <v>3541048</v>
       </c>
       <c r="C15" t="n">
-        <v>2595342</v>
+        <v>3541060</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1336113</v>
+        <v>2170035</v>
       </c>
       <c r="B16" t="n">
-        <v>2677828</v>
+        <v>2176675</v>
       </c>
       <c r="C16" t="n">
-        <v>2677862</v>
+        <v>2176679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1635278</v>
+        <v>3260718</v>
       </c>
       <c r="B17" t="n">
-        <v>3278370</v>
+        <v>3266897</v>
       </c>
       <c r="C17" t="n">
-        <v>3278388</v>
+        <v>3266919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>990539</v>
+        <v>2604279</v>
       </c>
       <c r="B18" t="n">
-        <v>1987846</v>
+        <v>2610514</v>
       </c>
       <c r="C18" t="n">
-        <v>1987872</v>
+        <v>2610552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1298951</v>
+        <v>3353059</v>
       </c>
       <c r="B19" t="n">
-        <v>2605339</v>
+        <v>3360784</v>
       </c>
       <c r="C19" t="n">
-        <v>2605349</v>
+        <v>3360812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1437066</v>
+        <v>3562073</v>
       </c>
       <c r="B20" t="n">
-        <v>2880352</v>
+        <v>3568449</v>
       </c>
       <c r="C20" t="n">
-        <v>2880376</v>
+        <v>3568471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1933480</v>
+        <v>2179552</v>
       </c>
       <c r="B21" t="n">
-        <v>3874050</v>
+        <v>2187822</v>
       </c>
       <c r="C21" t="n">
-        <v>3874080</v>
+        <v>2187834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1718162</v>
+        <v>2224638</v>
       </c>
       <c r="B22" t="n">
-        <v>3441599</v>
+        <v>2230694</v>
       </c>
       <c r="C22" t="n">
-        <v>3441633</v>
+        <v>2230708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1711135</v>
+        <v>3233334</v>
       </c>
       <c r="B23" t="n">
-        <v>3430524</v>
+        <v>3238327</v>
       </c>
       <c r="C23" t="n">
-        <v>3430548</v>
+        <v>3238329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1702383</v>
+        <v>2814187</v>
       </c>
       <c r="B24" t="n">
-        <v>3411686</v>
+        <v>2819593</v>
       </c>
       <c r="C24" t="n">
-        <v>3411710</v>
+        <v>2819603</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1105232</v>
+        <v>2634216</v>
       </c>
       <c r="B25" t="n">
-        <v>2215387</v>
+        <v>2641505</v>
       </c>
       <c r="C25" t="n">
-        <v>2215409</v>
+        <v>2641515</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1248877</v>
+        <v>3788424</v>
       </c>
       <c r="B26" t="n">
-        <v>2502103</v>
+        <v>3793568</v>
       </c>
       <c r="C26" t="n">
-        <v>2502123</v>
+        <v>3793606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1552906</v>
+        <v>3584698</v>
       </c>
       <c r="B27" t="n">
-        <v>3113773</v>
+        <v>3591659</v>
       </c>
       <c r="C27" t="n">
-        <v>3113791</v>
+        <v>3591679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1032653</v>
+        <v>2832066</v>
       </c>
       <c r="B28" t="n">
-        <v>2072194</v>
+        <v>2838252</v>
       </c>
       <c r="C28" t="n">
-        <v>2072224</v>
+        <v>2838270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1936399</v>
+        <v>3378442</v>
       </c>
       <c r="B29" t="n">
-        <v>3877417</v>
+        <v>3384598</v>
       </c>
       <c r="C29" t="n">
-        <v>3877459</v>
+        <v>3384614</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1348145</v>
+        <v>2998107</v>
       </c>
       <c r="B30" t="n">
-        <v>2701131</v>
+        <v>3002726</v>
       </c>
       <c r="C30" t="n">
-        <v>2701163</v>
+        <v>3002744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1200672</v>
+        <v>2184815</v>
       </c>
       <c r="B31" t="n">
-        <v>2406523</v>
+        <v>2192667</v>
       </c>
       <c r="C31" t="n">
-        <v>2406555</v>
+        <v>2192693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1612594</v>
+        <v>3035841</v>
       </c>
       <c r="B32" t="n">
-        <v>3232830</v>
+        <v>3043947</v>
       </c>
       <c r="C32" t="n">
-        <v>3232850</v>
+        <v>3043959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1438528</v>
+        <v>1951165</v>
       </c>
       <c r="B33" t="n">
-        <v>2883106</v>
+        <v>1958496</v>
       </c>
       <c r="C33" t="n">
-        <v>2883136</v>
+        <v>1958520</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1739127</v>
+        <v>3399487</v>
       </c>
       <c r="B34" t="n">
-        <v>3485646</v>
+        <v>3404968</v>
       </c>
       <c r="C34" t="n">
-        <v>3485678</v>
+        <v>3404994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1567344</v>
+        <v>3492619</v>
       </c>
       <c r="B35" t="n">
-        <v>3141747</v>
+        <v>3497623</v>
       </c>
       <c r="C35" t="n">
-        <v>3141769</v>
+        <v>3497639</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1506199</v>
+        <v>2974627</v>
       </c>
       <c r="B36" t="n">
-        <v>3017558</v>
+        <v>2981580</v>
       </c>
       <c r="C36" t="n">
-        <v>3017576</v>
+        <v>2981602</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1237364</v>
+        <v>3537713</v>
       </c>
       <c r="B37" t="n">
-        <v>2481917</v>
+        <v>3543712</v>
       </c>
       <c r="C37" t="n">
-        <v>2481957</v>
+        <v>3543740</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1922160</v>
+        <v>3924493</v>
       </c>
       <c r="B38" t="n">
-        <v>3850559</v>
+        <v>3932323</v>
       </c>
       <c r="C38" t="n">
-        <v>3850565</v>
+        <v>3932367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1147502</v>
+        <v>3129453</v>
       </c>
       <c r="B39" t="n">
-        <v>2302827</v>
+        <v>3135061</v>
       </c>
       <c r="C39" t="n">
-        <v>2302853</v>
+        <v>3135067</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1099034</v>
+        <v>3786547</v>
       </c>
       <c r="B40" t="n">
-        <v>2205300</v>
+        <v>3790863</v>
       </c>
       <c r="C40" t="n">
-        <v>2205324</v>
+        <v>3790883</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1143289</v>
+        <v>2274155</v>
       </c>
       <c r="B41" t="n">
-        <v>2293046</v>
+        <v>2281650</v>
       </c>
       <c r="C41" t="n">
-        <v>2293060</v>
+        <v>2281676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1564590</v>
+        <v>2842777</v>
       </c>
       <c r="B42" t="n">
-        <v>3136761</v>
+        <v>2849267</v>
       </c>
       <c r="C42" t="n">
-        <v>3136763</v>
+        <v>2849283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1520299</v>
+        <v>3175325</v>
       </c>
       <c r="B43" t="n">
-        <v>3047761</v>
+        <v>3181278</v>
       </c>
       <c r="C43" t="n">
-        <v>3047765</v>
+        <v>3181298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1946767</v>
+        <v>2462541</v>
       </c>
       <c r="B44" t="n">
-        <v>3898454</v>
+        <v>2467967</v>
       </c>
       <c r="C44" t="n">
-        <v>3898488</v>
+        <v>2467977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1520976</v>
+        <v>1917829</v>
       </c>
       <c r="B45" t="n">
-        <v>3050308</v>
+        <v>1925495</v>
       </c>
       <c r="C45" t="n">
-        <v>3050338</v>
+        <v>1925517</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1495499</v>
+        <v>2802430</v>
       </c>
       <c r="B46" t="n">
-        <v>2999179</v>
+        <v>2806940</v>
       </c>
       <c r="C46" t="n">
-        <v>2999193</v>
+        <v>2806960</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1819881</v>
+        <v>1868072</v>
       </c>
       <c r="B47" t="n">
-        <v>3645006</v>
+        <v>1876104</v>
       </c>
       <c r="C47" t="n">
-        <v>3645040</v>
+        <v>1876126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1544077</v>
+        <v>2036400</v>
       </c>
       <c r="B48" t="n">
-        <v>3095620</v>
+        <v>2040943</v>
       </c>
       <c r="C48" t="n">
-        <v>3095654</v>
+        <v>2040951</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1784815</v>
+        <v>3282587</v>
       </c>
       <c r="B49" t="n">
-        <v>3577092</v>
+        <v>3288237</v>
       </c>
       <c r="C49" t="n">
-        <v>3577118</v>
+        <v>3288281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1894490</v>
+        <v>2643267</v>
       </c>
       <c r="B50" t="n">
-        <v>3794624</v>
+        <v>2648105</v>
       </c>
       <c r="C50" t="n">
-        <v>3794640</v>
+        <v>2648123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1778514</v>
+        <v>2517580</v>
       </c>
       <c r="B51" t="n">
-        <v>3565211</v>
+        <v>2523808</v>
       </c>
       <c r="C51" t="n">
-        <v>3565239</v>
+        <v>2523842</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1179382</v>
+        <v>3858581</v>
       </c>
       <c r="B52" t="n">
-        <v>2366276</v>
+        <v>3862891</v>
       </c>
       <c r="C52" t="n">
-        <v>2366296</v>
+        <v>3862899</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1361099</v>
+        <v>2701327</v>
       </c>
       <c r="B53" t="n">
-        <v>2730316</v>
+        <v>2708583</v>
       </c>
       <c r="C53" t="n">
-        <v>2730338</v>
+        <v>2708603</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1848109</v>
+        <v>3308353</v>
       </c>
       <c r="B54" t="n">
-        <v>3701078</v>
+        <v>3312721</v>
       </c>
       <c r="C54" t="n">
-        <v>3701106</v>
+        <v>3312751</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1685505</v>
+        <v>2764231</v>
       </c>
       <c r="B55" t="n">
-        <v>3375470</v>
+        <v>2770653</v>
       </c>
       <c r="C55" t="n">
-        <v>3375486</v>
+        <v>2770675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1720365</v>
+        <v>2589153</v>
       </c>
       <c r="B56" t="n">
-        <v>3448448</v>
+        <v>2596804</v>
       </c>
       <c r="C56" t="n">
-        <v>3448484</v>
+        <v>2596832</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1803129</v>
+        <v>2478188</v>
       </c>
       <c r="B57" t="n">
-        <v>3612310</v>
+        <v>2485168</v>
       </c>
       <c r="C57" t="n">
-        <v>3612328</v>
+        <v>2485186</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1381560</v>
+        <v>3295028</v>
       </c>
       <c r="B58" t="n">
-        <v>2770944</v>
+        <v>3302013</v>
       </c>
       <c r="C58" t="n">
-        <v>2770964</v>
+        <v>3302039</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1558673</v>
+        <v>2681419</v>
       </c>
       <c r="B59" t="n">
-        <v>3121985</v>
+        <v>2686280</v>
       </c>
       <c r="C59" t="n">
-        <v>3121993</v>
+        <v>2686316</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1792235</v>
+        <v>3494674</v>
       </c>
       <c r="B60" t="n">
-        <v>3589648</v>
+        <v>3502497</v>
       </c>
       <c r="C60" t="n">
-        <v>3589678</v>
+        <v>3502523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1169646</v>
+        <v>2601976</v>
       </c>
       <c r="B61" t="n">
-        <v>2345070</v>
+        <v>2608388</v>
       </c>
       <c r="C61" t="n">
-        <v>2345096</v>
+        <v>2608418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>951983</v>
+        <v>2078052</v>
       </c>
       <c r="B62" t="n">
-        <v>1908890</v>
+        <v>2083748</v>
       </c>
       <c r="C62" t="n">
-        <v>1908930</v>
+        <v>2083770</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1230072</v>
+        <v>3946152</v>
       </c>
       <c r="B63" t="n">
-        <v>2467478</v>
+        <v>3950665</v>
       </c>
       <c r="C63" t="n">
-        <v>2467492</v>
+        <v>3950683</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1865995</v>
+        <v>3952957</v>
       </c>
       <c r="B64" t="n">
-        <v>3740071</v>
+        <v>3960700</v>
       </c>
       <c r="C64" t="n">
-        <v>3740083</v>
+        <v>3960720</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1275658</v>
+        <v>2635614</v>
       </c>
       <c r="B65" t="n">
-        <v>2556754</v>
+        <v>2639832</v>
       </c>
       <c r="C65" t="n">
-        <v>2556762</v>
+        <v>2639866</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1207244</v>
+        <v>2163775</v>
       </c>
       <c r="B66" t="n">
-        <v>2422476</v>
+        <v>2168305</v>
       </c>
       <c r="C66" t="n">
-        <v>2422506</v>
+        <v>2168329</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1450726</v>
+        <v>3180537</v>
       </c>
       <c r="B67" t="n">
-        <v>2907843</v>
+        <v>3188837</v>
       </c>
       <c r="C67" t="n">
-        <v>2907877</v>
+        <v>3188883</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1843973</v>
+        <v>3053109</v>
       </c>
       <c r="B68" t="n">
-        <v>3692247</v>
+        <v>3058200</v>
       </c>
       <c r="C68" t="n">
-        <v>3692285</v>
+        <v>3058206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1260506</v>
+        <v>3570071</v>
       </c>
       <c r="B69" t="n">
-        <v>2528884</v>
+        <v>3578080</v>
       </c>
       <c r="C69" t="n">
-        <v>2528912</v>
+        <v>3578096</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1098817</v>
+        <v>3162124</v>
       </c>
       <c r="B70" t="n">
-        <v>2204564</v>
+        <v>3168630</v>
       </c>
       <c r="C70" t="n">
-        <v>2204596</v>
+        <v>3168644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1326859</v>
+        <v>3824301</v>
       </c>
       <c r="B71" t="n">
-        <v>2661495</v>
+        <v>3829991</v>
       </c>
       <c r="C71" t="n">
-        <v>2661535</v>
+        <v>3830017</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1602830</v>
+        <v>3520146</v>
       </c>
       <c r="B72" t="n">
-        <v>3211006</v>
+        <v>3525091</v>
       </c>
       <c r="C72" t="n">
-        <v>3211042</v>
+        <v>3525135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1990186</v>
+        <v>2146959</v>
       </c>
       <c r="B73" t="n">
-        <v>3987434</v>
+        <v>2155263</v>
       </c>
       <c r="C73" t="n">
-        <v>3987448</v>
+        <v>2155291</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1374177</v>
+        <v>1913138</v>
       </c>
       <c r="B74" t="n">
-        <v>2753862</v>
+        <v>1920161</v>
       </c>
       <c r="C74" t="n">
-        <v>2753888</v>
+        <v>1920195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1698697</v>
+        <v>2663093</v>
       </c>
       <c r="B75" t="n">
-        <v>3404880</v>
+        <v>2670106</v>
       </c>
       <c r="C75" t="n">
-        <v>3404900</v>
+        <v>2670140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1689666</v>
+        <v>2487637</v>
       </c>
       <c r="B76" t="n">
-        <v>3383721</v>
+        <v>2493361</v>
       </c>
       <c r="C76" t="n">
-        <v>3383751</v>
+        <v>2493379</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1478664</v>
+        <v>3078276</v>
       </c>
       <c r="B77" t="n">
-        <v>2963821</v>
+        <v>3084110</v>
       </c>
       <c r="C77" t="n">
-        <v>2963855</v>
+        <v>3084130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1041107</v>
+        <v>3095297</v>
       </c>
       <c r="B78" t="n">
-        <v>2088464</v>
+        <v>3100473</v>
       </c>
       <c r="C78" t="n">
-        <v>2088496</v>
+        <v>3100507</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>967405</v>
+        <v>2878548</v>
       </c>
       <c r="B79" t="n">
-        <v>1939545</v>
+        <v>2884840</v>
       </c>
       <c r="C79" t="n">
-        <v>1939583</v>
+        <v>2884858</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1885448</v>
+        <v>3077842</v>
       </c>
       <c r="B80" t="n">
-        <v>3777339</v>
+        <v>3084511</v>
       </c>
       <c r="C80" t="n">
-        <v>3777347</v>
+        <v>3084543</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1655145</v>
+        <v>2180681</v>
       </c>
       <c r="B81" t="n">
-        <v>3317079</v>
+        <v>2187033</v>
       </c>
       <c r="C81" t="n">
-        <v>3317099</v>
+        <v>2187057</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1901402</v>
+        <v>2325420</v>
       </c>
       <c r="B82" t="n">
-        <v>3808353</v>
+        <v>2331329</v>
       </c>
       <c r="C82" t="n">
-        <v>3808369</v>
+        <v>2331359</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1599113</v>
+        <v>3184949</v>
       </c>
       <c r="B83" t="n">
-        <v>3202808</v>
+        <v>3191323</v>
       </c>
       <c r="C83" t="n">
-        <v>3202822</v>
+        <v>3191349</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1709248</v>
+        <v>2225165</v>
       </c>
       <c r="B84" t="n">
-        <v>3423353</v>
+        <v>2230872</v>
       </c>
       <c r="C84" t="n">
-        <v>3423363</v>
+        <v>2230882</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1865120</v>
+        <v>1929001</v>
       </c>
       <c r="B85" t="n">
-        <v>3734735</v>
+        <v>1933797</v>
       </c>
       <c r="C85" t="n">
-        <v>3734753</v>
+        <v>1933815</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1732671</v>
+        <v>3786249</v>
       </c>
       <c r="B86" t="n">
-        <v>3470800</v>
+        <v>3792779</v>
       </c>
       <c r="C86" t="n">
-        <v>3470812</v>
+        <v>3792793</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1753108</v>
+        <v>2711097</v>
       </c>
       <c r="B87" t="n">
-        <v>3511912</v>
+        <v>2715683</v>
       </c>
       <c r="C87" t="n">
-        <v>3511962</v>
+        <v>2715723</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1454696</v>
+        <v>2865935</v>
       </c>
       <c r="B88" t="n">
-        <v>2917502</v>
+        <v>2872523</v>
       </c>
       <c r="C88" t="n">
-        <v>2917510</v>
+        <v>2872563</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1232169</v>
+        <v>3688958</v>
       </c>
       <c r="B89" t="n">
-        <v>2470767</v>
+        <v>3696557</v>
       </c>
       <c r="C89" t="n">
-        <v>2470811</v>
+        <v>3696573</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1197967</v>
+        <v>2446708</v>
       </c>
       <c r="B90" t="n">
-        <v>2404116</v>
+        <v>2452068</v>
       </c>
       <c r="C90" t="n">
-        <v>2404140</v>
+        <v>2452084</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>959619</v>
+        <v>2559591</v>
       </c>
       <c r="B91" t="n">
-        <v>1924138</v>
+        <v>2566438</v>
       </c>
       <c r="C91" t="n">
-        <v>1924166</v>
+        <v>2566474</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1334735</v>
+        <v>2449748</v>
       </c>
       <c r="B92" t="n">
-        <v>2674959</v>
+        <v>2456060</v>
       </c>
       <c r="C92" t="n">
-        <v>2674973</v>
+        <v>2456084</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1430477</v>
+        <v>2375264</v>
       </c>
       <c r="B93" t="n">
-        <v>2868225</v>
+        <v>2379744</v>
       </c>
       <c r="C93" t="n">
-        <v>2868245</v>
+        <v>2379752</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1713547</v>
+        <v>3835612</v>
       </c>
       <c r="B94" t="n">
-        <v>3433457</v>
+        <v>3839915</v>
       </c>
       <c r="C94" t="n">
-        <v>3433485</v>
+        <v>3839927</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1028415</v>
+        <v>3111261</v>
       </c>
       <c r="B95" t="n">
-        <v>2064130</v>
+        <v>3117730</v>
       </c>
       <c r="C95" t="n">
-        <v>2064134</v>
+        <v>3117752</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1691808</v>
+        <v>2664000</v>
       </c>
       <c r="B96" t="n">
-        <v>3388432</v>
+        <v>2668572</v>
       </c>
       <c r="C96" t="n">
-        <v>3388476</v>
+        <v>2668600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-2013122</v>
+        <v>2255411</v>
       </c>
       <c r="B97" t="n">
-        <v>4032145</v>
+        <v>2259700</v>
       </c>
       <c r="C97" t="n">
-        <v>4032171</v>
+        <v>2259730</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1890499</v>
+        <v>3375039</v>
       </c>
       <c r="B98" t="n">
-        <v>3788942</v>
+        <v>3381336</v>
       </c>
       <c r="C98" t="n">
-        <v>3788960</v>
+        <v>3381354</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1930360</v>
+        <v>2005240</v>
       </c>
       <c r="B99" t="n">
-        <v>3865091</v>
+        <v>2010184</v>
       </c>
       <c r="C99" t="n">
-        <v>3865121</v>
+        <v>2010196</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1873864</v>
+        <v>2547758</v>
       </c>
       <c r="B100" t="n">
-        <v>3753230</v>
+        <v>2552342</v>
       </c>
       <c r="C100" t="n">
-        <v>3753236</v>
+        <v>2552378</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1751889</v>
+        <v>2222227</v>
       </c>
       <c r="B101" t="n">
-        <v>3508719</v>
+        <v>2229782</v>
       </c>
       <c r="C101" t="n">
-        <v>3508745</v>
+        <v>2229806</v>
       </c>
     </row>
   </sheetData>
